--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_010_SwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_010_SwapQuotes.xlsx
@@ -14,9 +14,6 @@
     <sheet name="Swap3M" sheetId="18" r:id="rId5"/>
     <sheet name="Swap6M" sheetId="4" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="107">
   <si>
     <t>Currency</t>
   </si>
@@ -354,6 +351,9 @@
   </si>
   <si>
     <t>45Y</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="169" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1047,22 +1047,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1357,7 +1341,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="6" customWidth="1"/>
@@ -1369,13 +1353,13 @@
     <col min="8" max="16384" width="8" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="97" t="s">
         <v>72</v>
@@ -1384,14 +1368,14 @@
       <c r="D2" s="98"/>
       <c r="E2" s="99"/>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="13" t="s">
@@ -1400,7 +1384,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="10"/>
       <c r="C5" s="13" t="s">
@@ -1411,7 +1395,7 @@
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
       <c r="C6" s="13" t="s">
@@ -1422,7 +1406,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
@@ -1433,19 +1417,18 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="10"/>
       <c r="C9" s="13" t="s">
@@ -1456,15 +1439,15 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" s="9" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" ht="12" thickBot="1"/>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="97" t="s">
         <v>70</v>
       </c>
@@ -1472,13 +1455,13 @@
       <c r="D12" s="98"/>
       <c r="E12" s="99"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="13" t="s">
         <v>0</v>
@@ -1488,7 +1471,7 @@
       </c>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="13" t="s">
         <v>9</v>
@@ -1498,7 +1481,7 @@
       </c>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="13" t="s">
         <v>10</v>
@@ -1508,7 +1491,7 @@
       </c>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="13" t="s">
         <v>11</v>
@@ -1518,7 +1501,7 @@
       </c>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="2:5" ht="12" thickBot="1">
+    <row r="18" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -1550,7 +1533,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="75" customWidth="1"/>
     <col min="2" max="3" width="4" style="75" bestFit="1" customWidth="1"/>
@@ -1562,7 +1545,7 @@
     <col min="9" max="16384" width="9.140625" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="70"/>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -1572,7 +1555,7 @@
       <c r="G1" s="72"/>
       <c r="H1" s="74"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -1581,17 +1564,17 @@
         <f>Currency&amp;"_010_"&amp;"OIS.xml"</f>
         <v>USD_010_OIS.xml</v>
       </c>
-      <c r="F2" s="80">
+      <c r="F2" s="80" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(F3:F93),SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>71</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="81" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="82"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="76"/>
       <c r="B3" s="83"/>
       <c r="C3" s="83" t="s">
@@ -1614,7 +1597,7 @@
       </c>
       <c r="H3" s="82"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="76"/>
       <c r="B4" s="83"/>
       <c r="C4" s="83" t="s">
@@ -1637,7 +1620,7 @@
       </c>
       <c r="H4" s="82"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="76"/>
       <c r="B5" s="83"/>
       <c r="C5" s="83" t="s">
@@ -1660,7 +1643,7 @@
       </c>
       <c r="H5" s="82"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="76"/>
       <c r="B6" s="83"/>
       <c r="C6" s="83" t="s">
@@ -1683,7 +1666,7 @@
       </c>
       <c r="H6" s="82"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="76"/>
       <c r="B7" s="83"/>
       <c r="C7" s="83" t="s">
@@ -1706,7 +1689,7 @@
       </c>
       <c r="H7" s="82"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="76"/>
       <c r="B8" s="83"/>
       <c r="C8" s="83" t="s">
@@ -1729,7 +1712,7 @@
       </c>
       <c r="H8" s="82"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="76"/>
       <c r="B9" s="83"/>
       <c r="C9" s="83" t="s">
@@ -1752,7 +1735,7 @@
       </c>
       <c r="H9" s="82"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="76"/>
       <c r="B10" s="83"/>
       <c r="C10" s="83" t="s">
@@ -1775,7 +1758,7 @@
       </c>
       <c r="H10" s="82"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="76"/>
       <c r="B11" s="83"/>
       <c r="C11" s="83" t="s">
@@ -1798,7 +1781,7 @@
       </c>
       <c r="H11" s="82"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="76"/>
       <c r="B12" s="83"/>
       <c r="C12" s="83" t="s">
@@ -1821,7 +1804,7 @@
       </c>
       <c r="H12" s="82"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="76"/>
       <c r="B13" s="83"/>
       <c r="C13" s="83" t="s">
@@ -1844,7 +1827,7 @@
       </c>
       <c r="H13" s="82"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="83"/>
       <c r="C14" s="83" t="s">
@@ -1867,7 +1850,7 @@
       </c>
       <c r="H14" s="82"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="76"/>
       <c r="B15" s="83"/>
       <c r="C15" s="83" t="s">
@@ -1890,7 +1873,7 @@
       </c>
       <c r="H15" s="82"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="76"/>
       <c r="B16" s="83"/>
       <c r="C16" s="83" t="s">
@@ -1913,7 +1896,7 @@
       </c>
       <c r="H16" s="82"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="76"/>
       <c r="B17" s="83"/>
       <c r="C17" s="83" t="s">
@@ -1936,7 +1919,7 @@
       </c>
       <c r="H17" s="82"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="76"/>
       <c r="B18" s="83"/>
       <c r="C18" s="83" t="s">
@@ -1959,7 +1942,7 @@
       </c>
       <c r="H18" s="82"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="76"/>
       <c r="B19" s="83"/>
       <c r="C19" s="83" t="s">
@@ -1982,7 +1965,7 @@
       </c>
       <c r="H19" s="82"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
       <c r="B20" s="83"/>
       <c r="C20" s="83" t="s">
@@ -2005,7 +1988,7 @@
       </c>
       <c r="H20" s="82"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="76"/>
       <c r="B21" s="83"/>
       <c r="C21" s="83" t="s">
@@ -2028,7 +2011,7 @@
       </c>
       <c r="H21" s="82"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="76"/>
       <c r="B22" s="83"/>
       <c r="C22" s="83" t="s">
@@ -2051,7 +2034,7 @@
       </c>
       <c r="H22" s="82"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="76"/>
       <c r="B23" s="83"/>
       <c r="C23" s="83" t="s">
@@ -2074,7 +2057,7 @@
       </c>
       <c r="H23" s="82"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="76"/>
       <c r="B24" s="83"/>
       <c r="C24" s="83" t="s">
@@ -2097,7 +2080,7 @@
       </c>
       <c r="H24" s="82"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="76"/>
       <c r="B25" s="83"/>
       <c r="C25" s="83" t="s">
@@ -2120,7 +2103,7 @@
       </c>
       <c r="H25" s="82"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="76"/>
       <c r="B26" s="83"/>
       <c r="C26" s="83" t="s">
@@ -2143,7 +2126,7 @@
       </c>
       <c r="H26" s="82"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="76"/>
       <c r="B27" s="83"/>
       <c r="C27" s="83" t="s">
@@ -2166,7 +2149,7 @@
       </c>
       <c r="H27" s="82"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="76"/>
       <c r="B28" s="83"/>
       <c r="C28" s="83" t="s">
@@ -2189,7 +2172,7 @@
       </c>
       <c r="H28" s="82"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="76"/>
       <c r="B29" s="83"/>
       <c r="C29" s="83" t="s">
@@ -2212,7 +2195,7 @@
       </c>
       <c r="H29" s="82"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="76"/>
       <c r="B30" s="83"/>
       <c r="C30" s="83" t="s">
@@ -2235,7 +2218,7 @@
       </c>
       <c r="H30" s="82"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="76"/>
       <c r="B31" s="83"/>
       <c r="C31" s="83" t="s">
@@ -2258,7 +2241,7 @@
       </c>
       <c r="H31" s="82"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="76"/>
       <c r="B32" s="83"/>
       <c r="C32" s="83" t="s">
@@ -2281,7 +2264,7 @@
       </c>
       <c r="H32" s="82"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="76"/>
       <c r="B33" s="83"/>
       <c r="C33" s="83" t="s">
@@ -2304,7 +2287,7 @@
       </c>
       <c r="H33" s="82"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="76"/>
       <c r="B34" s="83"/>
       <c r="C34" s="83" t="s">
@@ -2327,7 +2310,7 @@
       </c>
       <c r="H34" s="82"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="76"/>
       <c r="B35" s="83"/>
       <c r="C35" s="83" t="s">
@@ -2350,7 +2333,7 @@
       </c>
       <c r="H35" s="82"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="76"/>
       <c r="B36" s="83"/>
       <c r="C36" s="83" t="s">
@@ -2373,7 +2356,7 @@
       </c>
       <c r="H36" s="82"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="76"/>
       <c r="B37" s="83"/>
       <c r="C37" s="83" t="s">
@@ -2396,7 +2379,7 @@
       </c>
       <c r="H37" s="82"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="76"/>
       <c r="B38" s="83"/>
       <c r="C38" s="83" t="s">
@@ -2419,7 +2402,7 @@
       </c>
       <c r="H38" s="82"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="76"/>
       <c r="B39" s="83"/>
       <c r="C39" s="83" t="s">
@@ -2442,7 +2425,7 @@
       </c>
       <c r="H39" s="82"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="76"/>
       <c r="B40" s="83"/>
       <c r="C40" s="83" t="s">
@@ -2465,7 +2448,7 @@
       </c>
       <c r="H40" s="82"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="76"/>
       <c r="B41" s="83"/>
       <c r="C41" s="83" t="s">
@@ -2488,7 +2471,7 @@
       </c>
       <c r="H41" s="82"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="76"/>
       <c r="B42" s="83"/>
       <c r="C42" s="83" t="s">
@@ -2511,7 +2494,7 @@
       </c>
       <c r="H42" s="82"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="76"/>
       <c r="B43" s="83"/>
       <c r="C43" s="83" t="s">
@@ -2534,7 +2517,7 @@
       </c>
       <c r="H43" s="82"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="76"/>
       <c r="B44" s="83"/>
       <c r="C44" s="83" t="s">
@@ -2557,7 +2540,7 @@
       </c>
       <c r="H44" s="82"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="76"/>
       <c r="B45" s="83"/>
       <c r="C45" s="83" t="s">
@@ -2580,7 +2563,7 @@
       </c>
       <c r="H45" s="82"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="76"/>
       <c r="B46" s="83"/>
       <c r="C46" s="83" t="s">
@@ -2603,7 +2586,7 @@
       </c>
       <c r="H46" s="82"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="76"/>
       <c r="B47" s="83"/>
       <c r="C47" s="83" t="s">
@@ -2626,7 +2609,7 @@
       </c>
       <c r="H47" s="82"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="76"/>
       <c r="B48" s="83"/>
       <c r="C48" s="83" t="s">
@@ -2649,7 +2632,7 @@
       </c>
       <c r="H48" s="82"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="76"/>
       <c r="B49" s="83"/>
       <c r="C49" s="83" t="s">
@@ -2672,7 +2655,7 @@
       </c>
       <c r="H49" s="82"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="76"/>
       <c r="B50" s="83"/>
       <c r="C50" s="83" t="s">
@@ -2695,7 +2678,7 @@
       </c>
       <c r="H50" s="82"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="76"/>
       <c r="B51" s="83"/>
       <c r="C51" s="83" t="s">
@@ -2718,7 +2701,7 @@
       </c>
       <c r="H51" s="82"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="76"/>
       <c r="B52" s="83"/>
       <c r="C52" s="83" t="s">
@@ -2741,7 +2724,7 @@
       </c>
       <c r="H52" s="82"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="76"/>
       <c r="B53" s="83"/>
       <c r="C53" s="83" t="s">
@@ -2764,7 +2747,7 @@
       </c>
       <c r="H53" s="82"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="76"/>
       <c r="B54" s="83"/>
       <c r="C54" s="83" t="s">
@@ -2787,7 +2770,7 @@
       </c>
       <c r="H54" s="82"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="76"/>
       <c r="B55" s="83"/>
       <c r="C55" s="83" t="s">
@@ -2810,7 +2793,7 @@
       </c>
       <c r="H55" s="82"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="76"/>
       <c r="B56" s="83"/>
       <c r="C56" s="83" t="s">
@@ -2833,7 +2816,7 @@
       </c>
       <c r="H56" s="82"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="76"/>
       <c r="B57" s="87"/>
       <c r="C57" s="87"/>
@@ -2843,7 +2826,7 @@
       <c r="G57" s="89"/>
       <c r="H57" s="82"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="76"/>
       <c r="B58" s="83" t="s">
         <v>87</v>
@@ -2869,7 +2852,7 @@
       </c>
       <c r="H58" s="82"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="76"/>
       <c r="B59" s="83" t="s">
         <v>87</v>
@@ -2895,7 +2878,7 @@
       </c>
       <c r="H59" s="82"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="76"/>
       <c r="B60" s="83" t="s">
         <v>87</v>
@@ -2921,7 +2904,7 @@
       </c>
       <c r="H60" s="82"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="76"/>
       <c r="B61" s="83" t="s">
         <v>87</v>
@@ -2947,7 +2930,7 @@
       </c>
       <c r="H61" s="82"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="76"/>
       <c r="B62" s="83" t="s">
         <v>87</v>
@@ -2973,7 +2956,7 @@
       </c>
       <c r="H62" s="82"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="76"/>
       <c r="B63" s="83" t="s">
         <v>87</v>
@@ -2999,7 +2982,7 @@
       </c>
       <c r="H63" s="82"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="76"/>
       <c r="B64" s="83" t="s">
         <v>87</v>
@@ -3025,7 +3008,7 @@
       </c>
       <c r="H64" s="82"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="76"/>
       <c r="B65" s="83" t="s">
         <v>87</v>
@@ -3051,7 +3034,7 @@
       </c>
       <c r="H65" s="82"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="76"/>
       <c r="B66" s="83" t="s">
         <v>87</v>
@@ -3077,7 +3060,7 @@
       </c>
       <c r="H66" s="82"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="76"/>
       <c r="B67" s="83" t="s">
         <v>87</v>
@@ -3103,7 +3086,7 @@
       </c>
       <c r="H67" s="82"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="76"/>
       <c r="B68" s="83" t="s">
         <v>87</v>
@@ -3129,7 +3112,7 @@
       </c>
       <c r="H68" s="82"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="76"/>
       <c r="B69" s="83" t="s">
         <v>87</v>
@@ -3155,7 +3138,7 @@
       </c>
       <c r="H69" s="82"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="76"/>
       <c r="B70" s="83" t="s">
         <v>87</v>
@@ -3181,7 +3164,7 @@
       </c>
       <c r="H70" s="82"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="76"/>
       <c r="B71" s="83" t="s">
         <v>87</v>
@@ -3207,7 +3190,7 @@
       </c>
       <c r="H71" s="82"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="76"/>
       <c r="B72" s="83" t="s">
         <v>87</v>
@@ -3233,7 +3216,7 @@
       </c>
       <c r="H72" s="82"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="76"/>
       <c r="B73" s="83" t="s">
         <v>87</v>
@@ -3259,7 +3242,7 @@
       </c>
       <c r="H73" s="82"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="76"/>
       <c r="B74" s="83" t="s">
         <v>87</v>
@@ -3285,7 +3268,7 @@
       </c>
       <c r="H74" s="82"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="76"/>
       <c r="B75" s="83" t="s">
         <v>87</v>
@@ -3311,7 +3294,7 @@
       </c>
       <c r="H75" s="82"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="76"/>
       <c r="B76" s="83" t="s">
         <v>87</v>
@@ -3337,7 +3320,7 @@
       </c>
       <c r="H76" s="82"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="76"/>
       <c r="B77" s="83" t="s">
         <v>87</v>
@@ -3363,7 +3346,7 @@
       </c>
       <c r="H77" s="82"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="76"/>
       <c r="B78" s="83" t="s">
         <v>87</v>
@@ -3389,7 +3372,7 @@
       </c>
       <c r="H78" s="82"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="76"/>
       <c r="B79" s="83" t="s">
         <v>87</v>
@@ -3415,7 +3398,7 @@
       </c>
       <c r="H79" s="82"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="76"/>
       <c r="B80" s="83" t="s">
         <v>87</v>
@@ -3441,7 +3424,7 @@
       </c>
       <c r="H80" s="82"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="76"/>
       <c r="B81" s="83" t="s">
         <v>87</v>
@@ -3467,7 +3450,7 @@
       </c>
       <c r="H81" s="82"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="76"/>
       <c r="B82" s="83" t="s">
         <v>87</v>
@@ -3493,7 +3476,7 @@
       </c>
       <c r="H82" s="82"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="76"/>
       <c r="B83" s="83" t="s">
         <v>87</v>
@@ -3519,7 +3502,7 @@
       </c>
       <c r="H83" s="82"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="76"/>
       <c r="B84" s="83" t="s">
         <v>87</v>
@@ -3545,7 +3528,7 @@
       </c>
       <c r="H84" s="82"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="76"/>
       <c r="B85" s="83" t="s">
         <v>87</v>
@@ -3571,7 +3554,7 @@
       </c>
       <c r="H85" s="82"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="76"/>
       <c r="B86" s="83" t="s">
         <v>87</v>
@@ -3597,7 +3580,7 @@
       </c>
       <c r="H86" s="82"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="76"/>
       <c r="B87" s="83" t="s">
         <v>87</v>
@@ -3623,7 +3606,7 @@
       </c>
       <c r="H87" s="82"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="76"/>
       <c r="B88" s="83" t="s">
         <v>87</v>
@@ -3649,7 +3632,7 @@
       </c>
       <c r="H88" s="82"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="76"/>
       <c r="B89" s="83" t="s">
         <v>87</v>
@@ -3675,7 +3658,7 @@
       </c>
       <c r="H89" s="82"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="76"/>
       <c r="B90" s="83" t="s">
         <v>87</v>
@@ -3701,7 +3684,7 @@
       </c>
       <c r="H90" s="82"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="76"/>
       <c r="B91" s="83" t="s">
         <v>87</v>
@@ -3727,7 +3710,7 @@
       </c>
       <c r="H91" s="82"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="76"/>
       <c r="B92" s="83" t="s">
         <v>87</v>
@@ -3753,7 +3736,7 @@
       </c>
       <c r="H92" s="82"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="76"/>
       <c r="B93" s="83" t="s">
         <v>87</v>
@@ -3779,7 +3762,7 @@
       </c>
       <c r="H93" s="82"/>
     </row>
-    <row r="94" spans="1:8" ht="14.25" thickBot="1">
+    <row r="94" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="90"/>
       <c r="B94" s="91"/>
       <c r="C94" s="91"/>
@@ -3806,7 +3789,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -3818,7 +3801,7 @@
     <col min="8" max="8" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -3828,7 +3811,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
@@ -3837,17 +3820,17 @@
         <f>Currency&amp;"_010_Sw"&amp;"1M.xml"</f>
         <v>USD_010_Sw1M.xml</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="33" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F13,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>11</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="41"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="25"/>
       <c r="C3" s="21">
@@ -3870,7 +3853,7 @@
       </c>
       <c r="H3" s="41"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="27"/>
       <c r="C4" s="22">
@@ -3893,7 +3876,7 @@
       </c>
       <c r="H4" s="41"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="27"/>
       <c r="C5" s="22">
@@ -3916,7 +3899,7 @@
       </c>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="27"/>
       <c r="C6" s="22">
@@ -3939,7 +3922,7 @@
       </c>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
       <c r="B7" s="27"/>
       <c r="C7" s="22">
@@ -3962,7 +3945,7 @@
       </c>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="27"/>
       <c r="C8" s="22">
@@ -3985,7 +3968,7 @@
       </c>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="27"/>
       <c r="C9" s="22">
@@ -4008,7 +3991,7 @@
       </c>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="27"/>
       <c r="C10" s="22">
@@ -4031,7 +4014,7 @@
       </c>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="27"/>
       <c r="C11" s="22">
@@ -4054,7 +4037,7 @@
       </c>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="27"/>
       <c r="C12" s="22">
@@ -4077,7 +4060,7 @@
       </c>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="27"/>
       <c r="C13" s="22">
@@ -4100,7 +4083,7 @@
       </c>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:8" ht="13.5" thickBot="1">
+    <row r="14" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
@@ -4127,7 +4110,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -4139,7 +4122,7 @@
     <col min="8" max="8" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -4149,7 +4132,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
@@ -4158,17 +4141,17 @@
         <f>Currency&amp;"_010_Sw"&amp;"IMM.xml"</f>
         <v>USD_010_SwIMM.xml</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="33" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>7</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="41"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="46"/>
       <c r="C3" s="4" t="s">
@@ -4191,7 +4174,7 @@
       </c>
       <c r="H3" s="41"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="47"/>
       <c r="C4" s="1" t="s">
@@ -4214,7 +4197,7 @@
       </c>
       <c r="H4" s="41"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="47"/>
       <c r="C5" s="1" t="s">
@@ -4237,7 +4220,7 @@
       </c>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="47"/>
       <c r="C6" s="1" t="s">
@@ -4260,7 +4243,7 @@
       </c>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
       <c r="B7" s="47"/>
       <c r="C7" s="1" t="s">
@@ -4283,7 +4266,7 @@
       </c>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="47"/>
       <c r="C8" s="1" t="s">
@@ -4306,7 +4289,7 @@
       </c>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="47"/>
       <c r="C9" s="1" t="s">
@@ -4329,7 +4312,7 @@
       </c>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:8" ht="13.5" thickBot="1">
+    <row r="10" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
@@ -4356,7 +4339,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -4371,7 +4354,7 @@
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1">
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -4381,7 +4364,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="31" t="s">
         <v>71</v>
@@ -4392,12 +4375,12 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$3&amp;$D$3&amp;".xml"</f>
         <v>USD_010_SwAM3L.xml</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="33" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>37</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="41"/>
@@ -4411,7 +4394,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="25" t="s">
         <v>18</v>
@@ -4447,7 +4430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="27" t="s">
         <v>19</v>
@@ -4481,7 +4464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="27" t="s">
         <v>20</v>
@@ -4515,7 +4498,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="27" t="s">
         <v>21</v>
@@ -4549,7 +4532,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13.5" thickBot="1">
+    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40"/>
       <c r="B7" s="27" t="s">
         <v>22</v>
@@ -4583,7 +4566,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="27" t="s">
         <v>23</v>
@@ -4608,7 +4591,7 @@
       </c>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="27" t="s">
         <v>24</v>
@@ -4633,7 +4616,7 @@
       </c>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="27" t="s">
         <v>25</v>
@@ -4658,7 +4641,7 @@
       </c>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="27" t="s">
         <v>26</v>
@@ -4683,7 +4666,7 @@
       </c>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="27" t="s">
         <v>27</v>
@@ -4708,7 +4691,7 @@
       </c>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="27" t="s">
         <v>28</v>
@@ -4733,7 +4716,7 @@
       </c>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
       <c r="B14" s="27" t="s">
         <v>29</v>
@@ -4758,7 +4741,7 @@
       </c>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="27" t="s">
         <v>30</v>
@@ -4783,7 +4766,7 @@
       </c>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="27" t="s">
         <v>31</v>
@@ -4808,7 +4791,7 @@
       </c>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="40"/>
       <c r="B17" s="27" t="s">
         <v>32</v>
@@ -4833,7 +4816,7 @@
       </c>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="27" t="s">
         <v>33</v>
@@ -4858,7 +4841,7 @@
       </c>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40"/>
       <c r="B19" s="27" t="s">
         <v>34</v>
@@ -4883,7 +4866,7 @@
       </c>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="40"/>
       <c r="B20" s="27" t="s">
         <v>35</v>
@@ -4908,7 +4891,7 @@
       </c>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
       <c r="B21" s="27" t="s">
         <v>36</v>
@@ -4933,7 +4916,7 @@
       </c>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="40"/>
       <c r="B22" s="27" t="s">
         <v>37</v>
@@ -4958,7 +4941,7 @@
       </c>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="40"/>
       <c r="B23" s="27" t="s">
         <v>38</v>
@@ -4983,7 +4966,7 @@
       </c>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="40"/>
       <c r="B24" s="27" t="s">
         <v>39</v>
@@ -5008,7 +4991,7 @@
       </c>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="40"/>
       <c r="B25" s="27" t="s">
         <v>40</v>
@@ -5033,7 +5016,7 @@
       </c>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="27" t="s">
         <v>41</v>
@@ -5058,7 +5041,7 @@
       </c>
       <c r="H26" s="41"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="27" t="s">
         <v>42</v>
@@ -5083,7 +5066,7 @@
       </c>
       <c r="H27" s="41"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="40"/>
       <c r="B28" s="27" t="s">
         <v>43</v>
@@ -5108,7 +5091,7 @@
       </c>
       <c r="H28" s="41"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="40"/>
       <c r="B29" s="27" t="s">
         <v>44</v>
@@ -5133,7 +5116,7 @@
       </c>
       <c r="H29" s="41"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="27" t="s">
         <v>45</v>
@@ -5158,7 +5141,7 @@
       </c>
       <c r="H30" s="41"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="40"/>
       <c r="B31" s="27" t="s">
         <v>46</v>
@@ -5183,7 +5166,7 @@
       </c>
       <c r="H31" s="41"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="40"/>
       <c r="B32" s="27" t="s">
         <v>47</v>
@@ -5208,7 +5191,7 @@
       </c>
       <c r="H32" s="41"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="40"/>
       <c r="B33" s="27" t="s">
         <v>48</v>
@@ -5233,7 +5216,7 @@
       </c>
       <c r="H33" s="41"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="40"/>
       <c r="B34" s="27" t="s">
         <v>49</v>
@@ -5258,7 +5241,7 @@
       </c>
       <c r="H34" s="41"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="40"/>
       <c r="B35" s="27" t="s">
         <v>50</v>
@@ -5283,7 +5266,7 @@
       </c>
       <c r="H35" s="41"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="40"/>
       <c r="B36" s="27" t="s">
         <v>51</v>
@@ -5308,7 +5291,7 @@
       </c>
       <c r="H36" s="41"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="40"/>
       <c r="B37" s="27" t="s">
         <v>52</v>
@@ -5333,7 +5316,7 @@
       </c>
       <c r="H37" s="41"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="40"/>
       <c r="B38" s="27" t="s">
         <v>53</v>
@@ -5358,7 +5341,7 @@
       </c>
       <c r="H38" s="41"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
       <c r="B39" s="27" t="s">
         <v>54</v>
@@ -5383,7 +5366,7 @@
       </c>
       <c r="H39" s="41"/>
     </row>
-    <row r="40" spans="1:8" ht="13.5" thickBot="1">
+    <row r="40" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -5410,7 +5393,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="52" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="53" bestFit="1" customWidth="1"/>
@@ -5427,7 +5410,7 @@
     <col min="13" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12" thickBot="1">
+    <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -5437,7 +5420,7 @@
       <c r="G1" s="50"/>
       <c r="H1" s="39"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="31" t="s">
         <v>71</v>
@@ -5448,12 +5431,12 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$3&amp;$D$3&amp;".xml"</f>
         <v>USD_010_SwAM6L.xml</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="33" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>37</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="41"/>
@@ -5467,7 +5450,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="57" t="s">
         <v>18</v>
@@ -5503,7 +5486,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="58" t="s">
         <v>19</v>
@@ -5537,7 +5520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="58" t="s">
         <v>20</v>
@@ -5571,7 +5554,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="58" t="s">
         <v>21</v>
@@ -5605,7 +5588,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12" thickBot="1">
+    <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40"/>
       <c r="B7" s="57" t="s">
         <v>22</v>
@@ -5639,7 +5622,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="57" t="s">
         <v>23</v>
@@ -5664,7 +5647,7 @@
       </c>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="57" t="s">
         <v>24</v>
@@ -5689,7 +5672,7 @@
       </c>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="57" t="s">
         <v>25</v>
@@ -5714,7 +5697,7 @@
       </c>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="57" t="s">
         <v>26</v>
@@ -5739,7 +5722,7 @@
       </c>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="57" t="s">
         <v>27</v>
@@ -5764,7 +5747,7 @@
       </c>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="57" t="s">
         <v>28</v>
@@ -5789,7 +5772,7 @@
       </c>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
       <c r="B14" s="57" t="s">
         <v>29</v>
@@ -5814,7 +5797,7 @@
       </c>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="57" t="s">
         <v>30</v>
@@ -5839,7 +5822,7 @@
       </c>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="57" t="s">
         <v>31</v>
@@ -5864,7 +5847,7 @@
       </c>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="40"/>
       <c r="B17" s="57" t="s">
         <v>32</v>
@@ -5889,7 +5872,7 @@
       </c>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="57" t="s">
         <v>33</v>
@@ -5914,7 +5897,7 @@
       </c>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40"/>
       <c r="B19" s="57" t="s">
         <v>34</v>
@@ -5939,7 +5922,7 @@
       </c>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="40"/>
       <c r="B20" s="57" t="s">
         <v>35</v>
@@ -5964,7 +5947,7 @@
       </c>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
       <c r="B21" s="57" t="s">
         <v>36</v>
@@ -5989,7 +5972,7 @@
       </c>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="40"/>
       <c r="B22" s="57" t="s">
         <v>37</v>
@@ -6014,7 +5997,7 @@
       </c>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="40"/>
       <c r="B23" s="57" t="s">
         <v>38</v>
@@ -6039,7 +6022,7 @@
       </c>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="40"/>
       <c r="B24" s="57" t="s">
         <v>39</v>
@@ -6064,7 +6047,7 @@
       </c>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="40"/>
       <c r="B25" s="57" t="s">
         <v>40</v>
@@ -6089,7 +6072,7 @@
       </c>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="57" t="s">
         <v>41</v>
@@ -6114,7 +6097,7 @@
       </c>
       <c r="H26" s="41"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="57" t="s">
         <v>42</v>
@@ -6139,7 +6122,7 @@
       </c>
       <c r="H27" s="41"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="40"/>
       <c r="B28" s="57" t="s">
         <v>43</v>
@@ -6164,7 +6147,7 @@
       </c>
       <c r="H28" s="41"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="40"/>
       <c r="B29" s="57" t="s">
         <v>44</v>
@@ -6189,7 +6172,7 @@
       </c>
       <c r="H29" s="41"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="57" t="s">
         <v>45</v>
@@ -6214,7 +6197,7 @@
       </c>
       <c r="H30" s="41"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="40"/>
       <c r="B31" s="57" t="s">
         <v>46</v>
@@ -6239,7 +6222,7 @@
       </c>
       <c r="H31" s="41"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="40"/>
       <c r="B32" s="57" t="s">
         <v>47</v>
@@ -6264,7 +6247,7 @@
       </c>
       <c r="H32" s="41"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="40"/>
       <c r="B33" s="57" t="s">
         <v>48</v>
@@ -6289,7 +6272,7 @@
       </c>
       <c r="H33" s="41"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="40"/>
       <c r="B34" s="57" t="s">
         <v>49</v>
@@ -6314,7 +6297,7 @@
       </c>
       <c r="H34" s="41"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="40"/>
       <c r="B35" s="57" t="s">
         <v>50</v>
@@ -6339,7 +6322,7 @@
       </c>
       <c r="H35" s="41"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="40"/>
       <c r="B36" s="57" t="s">
         <v>51</v>
@@ -6364,7 +6347,7 @@
       </c>
       <c r="H36" s="41"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="40"/>
       <c r="B37" s="57" t="s">
         <v>52</v>
@@ -6389,7 +6372,7 @@
       </c>
       <c r="H37" s="41"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="40"/>
       <c r="B38" s="57" t="s">
         <v>53</v>
@@ -6414,7 +6397,7 @@
       </c>
       <c r="H38" s="41"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
       <c r="B39" s="57" t="s">
         <v>54</v>
@@ -6439,7 +6422,7 @@
       </c>
       <c r="H39" s="41"/>
     </row>
-    <row r="40" spans="1:8" ht="12" thickBot="1">
+    <row r="40" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55"/>
       <c r="B40" s="56"/>
       <c r="C40" s="56"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_010_SwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_010_SwapQuotes.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="106">
   <si>
     <t>Currency</t>
   </si>
@@ -351,9 +351,6 @@
   </si>
   <si>
     <t>45Y</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1423,8 +1420,9 @@
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>106</v>
+      <c r="D8" s="16" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -1565,12 +1563,12 @@
         <v>USD_010_OIS.xml</v>
       </c>
       <c r="F2" s="80" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(F3:F93),SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="81" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(F3:F93),SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="81" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="82"/>
     </row>
@@ -3288,9 +3286,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B75&amp;$C75&amp;$D75&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G75" s="85" t="str">
+      <c r="G75" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F75)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H75" s="82"/>
     </row>
@@ -3314,9 +3312,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B76&amp;$C76&amp;$D76&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G76" s="85" t="str">
+      <c r="G76" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F76)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H76" s="82"/>
     </row>
@@ -3340,9 +3338,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B77&amp;$C77&amp;$D77&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G77" s="85" t="str">
+      <c r="G77" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F77)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H77" s="82"/>
     </row>
@@ -3366,9 +3364,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B78&amp;$C78&amp;$D78&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G78" s="85" t="str">
+      <c r="G78" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F78)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H78" s="82"/>
     </row>
@@ -3392,9 +3390,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B79&amp;$C79&amp;$D79&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G79" s="85" t="str">
+      <c r="G79" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F79)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H79" s="82"/>
     </row>
@@ -3418,9 +3416,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B80&amp;$C80&amp;$D80&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G80" s="85" t="str">
+      <c r="G80" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F80)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H80" s="82"/>
     </row>
@@ -3444,9 +3442,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B81&amp;$C81&amp;$D81&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G81" s="85" t="str">
+      <c r="G81" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F81)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H81" s="82"/>
     </row>
@@ -3470,9 +3468,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B82&amp;$C82&amp;$D82&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G82" s="85" t="str">
+      <c r="G82" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F82)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H82" s="82"/>
     </row>
@@ -3496,9 +3494,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B83&amp;$C83&amp;$D83&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G83" s="85" t="str">
+      <c r="G83" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F83)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H83" s="82"/>
     </row>
@@ -3522,9 +3520,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B84&amp;$C84&amp;$D84&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G84" s="85" t="str">
+      <c r="G84" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F84)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H84" s="82"/>
     </row>
@@ -3548,9 +3546,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B85&amp;$C85&amp;$D85&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G85" s="85" t="str">
+      <c r="G85" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F85)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H85" s="82"/>
     </row>
@@ -3574,9 +3572,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B86&amp;$C86&amp;$D86&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G86" s="85" t="str">
+      <c r="G86" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F86)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H86" s="82"/>
     </row>
@@ -3600,9 +3598,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B87&amp;$C87&amp;$D87&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G87" s="85" t="str">
+      <c r="G87" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F87)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H87" s="82"/>
     </row>
@@ -3626,9 +3624,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B88&amp;$C88&amp;$D88&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G88" s="85" t="str">
+      <c r="G88" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F88)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H88" s="82"/>
     </row>
@@ -3652,9 +3650,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B89&amp;$C89&amp;$D89&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G89" s="85" t="str">
+      <c r="G89" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F89)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H89" s="82"/>
     </row>
@@ -3678,9 +3676,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B90&amp;$C90&amp;$D90&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G90" s="85" t="str">
+      <c r="G90" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F90)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H90" s="82"/>
     </row>
@@ -3704,9 +3702,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B91&amp;$C91&amp;$D91&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G91" s="85" t="str">
+      <c r="G91" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F91)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H91" s="82"/>
     </row>
@@ -3730,9 +3728,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B92&amp;$C92&amp;$D92&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G92" s="85" t="str">
+      <c r="G92" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F92)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H92" s="82"/>
     </row>
@@ -3756,9 +3754,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B93&amp;$C93&amp;$D93&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G93" s="85" t="str">
+      <c r="G93" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F93)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H93" s="82"/>
     </row>
@@ -3821,12 +3819,12 @@
         <v>USD_010_Sw1M.xml</v>
       </c>
       <c r="F2" s="33" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F13,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F13,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="41"/>
     </row>
@@ -4142,12 +4140,12 @@
         <v>USD_010_SwIMM.xml</v>
       </c>
       <c r="F2" s="33" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="41"/>
     </row>
@@ -4376,12 +4374,12 @@
         <v>USD_010_SwAM3L.xml</v>
       </c>
       <c r="F2" s="33" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="41"/>
       <c r="J2" s="59" t="s">
@@ -5432,12 +5430,12 @@
         <v>USD_010_SwAM6L.xml</v>
       </c>
       <c r="F2" s="33" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="41"/>
       <c r="J2" s="59" t="s">
